--- a/biology/Zoologie/Eumecia_anchietae/Eumecia_anchietae.xlsx
+++ b/biology/Zoologie/Eumecia_anchietae/Eumecia_anchietae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eumecia anchietae est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eumecia anchietae est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Angola, dans le sud de la République démocratique du Congo, en Zambie, en Tanzanie et au Kenya[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Angola, dans le sud de la République démocratique du Congo, en Zambie, en Tanzanie et au Kenya.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (21 septembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (21 septembre 2012) :
 Eumecia anchietae anchietae Bocage, 1870
 Eumecia anchietae major Laurent, 1964
 Eumecia anchietae wittei Laurent, 1964</t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de José Alberto de Oliveira Anchieta (1832-1897)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de José Alberto de Oliveira Anchieta (1832-1897).
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bocage, 1870 : Description d'un "Saurien" nouveau de l'Afrique occidentale. Jornal de Sciencias Mathematicas, Physicas e Naturaes, Academia Real das Sciencias de Lisboa, vol. 3, no 9, p. 66-68 (texte intégral).
 Laurent, 1964 : Reptiles et batraciens de l'Angola (troisième note). Companhia de Diamantes de Angola (Diamang), Serviços Culturais, Museu do Dundo (Angola), vol. 67, p. 1-165.</t>
